--- a/01-Basico-SaindoDoZero.xlsx
+++ b/01-Basico-SaindoDoZero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\Projetos Programação\Curso-Excel-Avancado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AAE857-8CDA-4F99-9F21-86A09A5DB266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631A6187-C093-4078-8383-AB57DA1E3E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BB31A186-E4EC-430F-A80A-1CD24FDFEA95}"/>
+    <workbookView xWindow="11244" yWindow="372" windowWidth="12252" windowHeight="11112" activeTab="3" xr2:uid="{BB31A186-E4EC-430F-A80A-1CD24FDFEA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Produtos</t>
   </si>
@@ -75,23 +75,46 @@
     <t>Obs: Éssa aba é tela de cadastro de produtos</t>
   </si>
   <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>Dados</t>
+  </si>
+  <si>
+    <t>Quantidade Comprada</t>
+  </si>
+  <si>
+    <t>Preco Vendido</t>
+  </si>
+  <si>
+    <t>Quantidade vendida</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Margem Lucro</t>
+  </si>
+  <si>
+    <t>Formula com Numeros</t>
+  </si>
+  <si>
+    <t>Formula com Referencia</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>SOMA</t>
+  </si>
+  <si>
+    <t>MULT</t>
   </si>
 </sst>
 </file>
@@ -101,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,14 +135,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,17 +155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,20 +179,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,43 +278,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="40% - Ênfase6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Ênfase6" xfId="3" builtinId="52"/>
+    <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,10 +647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03878AB6-72A4-49D4-AD28-387A285729B5}">
-  <dimension ref="A5:J17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,95 +661,233 @@
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="12" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>B2+B3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <f>10-2</f>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>B2-B3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <f>10*2</f>
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <f>B2*B3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <f>10/2</f>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f>B2/B3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="J5" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F9" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="11">
         <v>42024</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="10"/>
-      <c r="D8" s="6" t="s">
+      <c r="H9" s="9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10">
+        <f>F9+2.5</f>
+        <v>7</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9">
+        <f>H9-J9</f>
+        <v>5</v>
+      </c>
+      <c r="L9" s="15">
+        <f>(I9-F9)/I9</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F10" s="13">
         <v>7</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G10" s="14">
         <v>42025</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11"/>
-      <c r="D9" s="3" t="s">
+      <c r="H10" s="12">
+        <v>20</v>
+      </c>
+      <c r="I10" s="13">
+        <f>F10+3</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="12">
+        <v>8</v>
+      </c>
+      <c r="K10" s="12">
+        <f>H10-J10</f>
+        <v>12</v>
+      </c>
+      <c r="L10" s="16">
+        <f>(I10-F10)/I10</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F11" s="10">
         <v>8</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G11" s="11">
         <v>42025</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="H11" s="9">
+        <v>25</v>
+      </c>
+      <c r="I11" s="10">
+        <f>F11+6</f>
+        <v>14</v>
+      </c>
+      <c r="J11" s="9">
+        <v>17</v>
+      </c>
+      <c r="K11" s="9">
+        <f>H11-J11</f>
+        <v>8</v>
+      </c>
+      <c r="L11" s="15">
+        <f>(I11-F11)/I11</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -748,12 +905,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C1075A-F056-4B20-A6AB-9F3355E687C0}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2,B3)</f>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <f>PRODUCT(B2,B3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f>SUM(B2:B5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>